--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl4</t>
   </si>
   <si>
     <t>Ccr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.7934951406738</v>
+        <v>0.6488729999999999</v>
       </c>
       <c r="H2">
-        <v>52.7934951406738</v>
+        <v>1.946619</v>
       </c>
       <c r="I2">
-        <v>0.4393531550203758</v>
+        <v>0.005127809455874419</v>
       </c>
       <c r="J2">
-        <v>0.4393531550203758</v>
+        <v>0.00512780945587442</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N2">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q2">
-        <v>3.412060309331578</v>
+        <v>0.07834730522099997</v>
       </c>
       <c r="R2">
-        <v>3.412060309331578</v>
+        <v>0.7051257469889999</v>
       </c>
       <c r="S2">
-        <v>0.0002688882918850748</v>
+        <v>5.580839403249197E-06</v>
       </c>
       <c r="T2">
-        <v>0.0002688882918850748</v>
+        <v>5.580839403249198E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.7934951406738</v>
+        <v>0.6488729999999999</v>
       </c>
       <c r="H3">
-        <v>52.7934951406738</v>
+        <v>1.946619</v>
       </c>
       <c r="I3">
-        <v>0.4393531550203758</v>
+        <v>0.005127809455874419</v>
       </c>
       <c r="J3">
-        <v>0.4393531550203758</v>
+        <v>0.00512780945587442</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N3">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q3">
-        <v>2512.540149535047</v>
+        <v>31.70413917499499</v>
       </c>
       <c r="R3">
-        <v>2512.540149535047</v>
+        <v>285.337252574955</v>
       </c>
       <c r="S3">
-        <v>0.1980013739069863</v>
+        <v>0.002258350924193411</v>
       </c>
       <c r="T3">
-        <v>0.1980013739069863</v>
+        <v>0.002258350924193411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.7934951406738</v>
+        <v>0.6488729999999999</v>
       </c>
       <c r="H4">
-        <v>52.7934951406738</v>
+        <v>1.946619</v>
       </c>
       <c r="I4">
-        <v>0.4393531550203758</v>
+        <v>0.005127809455874419</v>
       </c>
       <c r="J4">
-        <v>0.4393531550203758</v>
+        <v>0.00512780945587442</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N4">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q4">
-        <v>3059.223457028304</v>
+        <v>40.170593632578</v>
       </c>
       <c r="R4">
-        <v>3059.223457028304</v>
+        <v>361.535342693202</v>
       </c>
       <c r="S4">
-        <v>0.2410828928215044</v>
+        <v>0.00286143385741508</v>
       </c>
       <c r="T4">
-        <v>0.2410828928215044</v>
+        <v>0.00286143385741508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>67.3683713155382</v>
+        <v>0.6488729999999999</v>
       </c>
       <c r="H5">
-        <v>67.3683713155382</v>
+        <v>1.946619</v>
       </c>
       <c r="I5">
-        <v>0.5606468449796242</v>
+        <v>0.005127809455874419</v>
       </c>
       <c r="J5">
-        <v>0.5606468449796242</v>
+        <v>0.00512780945587442</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0646303166751848</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0646303166751848</v>
+        <v>0.15862</v>
       </c>
       <c r="O5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q5">
-        <v>4.35403917201467</v>
+        <v>0.03430807842</v>
       </c>
       <c r="R5">
-        <v>4.35403917201467</v>
+        <v>0.30877270578</v>
       </c>
       <c r="S5">
-        <v>0.0003431211788847541</v>
+        <v>2.443834862679859E-06</v>
       </c>
       <c r="T5">
-        <v>0.0003431211788847541</v>
+        <v>2.443834862679859E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.3683713155382</v>
+        <v>55.419388</v>
       </c>
       <c r="H6">
-        <v>67.3683713155382</v>
+        <v>166.258164</v>
       </c>
       <c r="I6">
-        <v>0.5606468449796242</v>
+        <v>0.4379594494225732</v>
       </c>
       <c r="J6">
-        <v>0.5606468449796242</v>
+        <v>0.4379594494225733</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.5918509058762</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N6">
-        <v>47.5918509058762</v>
+        <v>0.362231</v>
       </c>
       <c r="O6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q6">
-        <v>3206.185483420801</v>
+        <v>6.691540111542666</v>
       </c>
       <c r="R6">
-        <v>3206.185483420801</v>
+        <v>60.22386100388399</v>
       </c>
       <c r="S6">
-        <v>0.2526642731800448</v>
+        <v>0.000476652140333094</v>
       </c>
       <c r="T6">
-        <v>0.2526642731800448</v>
+        <v>0.0004766521403330941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.3683713155382</v>
+        <v>55.419388</v>
       </c>
       <c r="H7">
-        <v>67.3683713155382</v>
+        <v>166.258164</v>
       </c>
       <c r="I7">
-        <v>0.5606468449796242</v>
+        <v>0.4379594494225732</v>
       </c>
       <c r="J7">
-        <v>0.5606468449796242</v>
+        <v>0.4379594494225733</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.946977158392</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N7">
-        <v>57.946977158392</v>
+        <v>146.580945</v>
       </c>
       <c r="O7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q7">
-        <v>3903.793473819563</v>
+        <v>2707.80875478722</v>
       </c>
       <c r="R7">
-        <v>3903.793473819563</v>
+        <v>24370.27879308498</v>
       </c>
       <c r="S7">
-        <v>0.3076394506206948</v>
+        <v>0.1928827769194175</v>
       </c>
       <c r="T7">
-        <v>0.3076394506206948</v>
+        <v>0.1928827769194176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>55.419388</v>
+      </c>
+      <c r="H8">
+        <v>166.258164</v>
+      </c>
+      <c r="I8">
+        <v>0.4379594494225732</v>
+      </c>
+      <c r="J8">
+        <v>0.4379594494225733</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N8">
+        <v>185.724758</v>
+      </c>
+      <c r="O8">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P8">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q8">
+        <v>3430.917474936035</v>
+      </c>
+      <c r="R8">
+        <v>30878.25727442431</v>
+      </c>
+      <c r="S8">
+        <v>0.2443912956471035</v>
+      </c>
+      <c r="T8">
+        <v>0.2443912956471035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.419388</v>
+      </c>
+      <c r="H9">
+        <v>166.258164</v>
+      </c>
+      <c r="I9">
+        <v>0.4379594494225732</v>
+      </c>
+      <c r="J9">
+        <v>0.4379594494225733</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.15862</v>
+      </c>
+      <c r="O9">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P9">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q9">
+        <v>2.930207774853333</v>
+      </c>
+      <c r="R9">
+        <v>26.37186997368</v>
+      </c>
+      <c r="S9">
+        <v>0.0002087247157190726</v>
+      </c>
+      <c r="T9">
+        <v>0.0002087247157190726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>70.435768</v>
+      </c>
+      <c r="H10">
+        <v>211.307304</v>
+      </c>
+      <c r="I10">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="J10">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.362231</v>
+      </c>
+      <c r="O10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P10">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q10">
+        <v>8.504672892802665</v>
+      </c>
+      <c r="R10">
+        <v>76.54205603522399</v>
+      </c>
+      <c r="S10">
+        <v>0.0006058053108274176</v>
+      </c>
+      <c r="T10">
+        <v>0.0006058053108274176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>70.435768</v>
+      </c>
+      <c r="H11">
+        <v>211.307304</v>
+      </c>
+      <c r="I11">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="J11">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N11">
+        <v>146.580945</v>
+      </c>
+      <c r="O11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P11">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q11">
+        <v>3441.513811746919</v>
+      </c>
+      <c r="R11">
+        <v>30973.62430572227</v>
+      </c>
+      <c r="S11">
+        <v>0.2451460944731445</v>
+      </c>
+      <c r="T11">
+        <v>0.2451460944731445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>70.435768</v>
+      </c>
+      <c r="H12">
+        <v>211.307304</v>
+      </c>
+      <c r="I12">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="J12">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N12">
+        <v>185.724758</v>
+      </c>
+      <c r="O12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P12">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q12">
+        <v>4360.555322114715</v>
+      </c>
+      <c r="R12">
+        <v>39244.99789903243</v>
+      </c>
+      <c r="S12">
+        <v>0.3106113081115005</v>
+      </c>
+      <c r="T12">
+        <v>0.3106113081115005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>70.435768</v>
+      </c>
+      <c r="H13">
+        <v>211.307304</v>
+      </c>
+      <c r="I13">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="J13">
+        <v>0.5566284884440821</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.15862</v>
+      </c>
+      <c r="O13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P13">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q13">
+        <v>3.724173840053333</v>
+      </c>
+      <c r="R13">
+        <v>33.51756456048</v>
+      </c>
+      <c r="S13">
+        <v>0.0002652805486097131</v>
+      </c>
+      <c r="T13">
+        <v>0.0002652805486097131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03596933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.107908</v>
+      </c>
+      <c r="I14">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="J14">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.362231</v>
+      </c>
+      <c r="O14">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P14">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q14">
+        <v>0.004343069194222221</v>
+      </c>
+      <c r="R14">
+        <v>0.039087622748</v>
+      </c>
+      <c r="S14">
+        <v>3.093657353215059E-07</v>
+      </c>
+      <c r="T14">
+        <v>3.093657353215059E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03596933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.107908</v>
+      </c>
+      <c r="I15">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="J15">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N15">
+        <v>146.580945</v>
+      </c>
+      <c r="O15">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P15">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q15">
+        <v>1.757472957006666</v>
+      </c>
+      <c r="R15">
+        <v>15.81725661306</v>
+      </c>
+      <c r="S15">
+        <v>0.0001251884069393459</v>
+      </c>
+      <c r="T15">
+        <v>0.0001251884069393459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03596933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.107908</v>
+      </c>
+      <c r="I16">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="J16">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N16">
+        <v>185.724758</v>
+      </c>
+      <c r="O16">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P16">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q16">
+        <v>2.226798576251555</v>
+      </c>
+      <c r="R16">
+        <v>20.041187186264</v>
+      </c>
+      <c r="S16">
+        <v>0.0001586194343556425</v>
+      </c>
+      <c r="T16">
+        <v>0.0001586194343556425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03596933333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.107908</v>
+      </c>
+      <c r="I17">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="J17">
+        <v>0.0002842526774702687</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.15862</v>
+      </c>
+      <c r="O17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q17">
+        <v>0.001901818551111111</v>
+      </c>
+      <c r="R17">
+        <v>0.01711636696</v>
+      </c>
+      <c r="S17">
+        <v>1.354704399587481E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.354704399587481E-07</v>
       </c>
     </row>
   </sheetData>
